--- a/results/finslides/retrieval_results.xlsx
+++ b/results/finslides/retrieval_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,12 +493,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TEXT</t>
+          <t>MULTIMODAL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>SINGLE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -507,151 +507,479 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1780175645510958</v>
+        <v>0.4594190075796388</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3372069000495356</v>
+        <v>0.4223255917435133</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1567877629063097</v>
+        <v>0.4138463989802422</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3198402348993183</v>
+        <v>0.4228511858016441</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04837476099426386</v>
+        <v>0.120076481835564</v>
       </c>
       <c r="I2" t="n">
-        <v>0.085643649487867</v>
+        <v>0.09912810087860269</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2418738049713193</v>
+        <v>0.597036328871893</v>
       </c>
       <c r="K2" t="n">
-        <v>0.428218247439335</v>
+        <v>0.4902498803089382</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TEXT</t>
+          <t>MULTIMODAL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>SINGLE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2776854495749441</v>
+        <v>0.7594595696731965</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4105810232619349</v>
+        <v>0.3451621684299527</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2565521628498728</v>
+        <v>0.7192111959287532</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4024126871428433</v>
+        <v>0.3762882778324463</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0683206106870229</v>
+        <v>0.1761450381679389</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09484944012885281</v>
+        <v>0.06598943035159732</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3416030534351145</v>
+        <v>0.8788167938931297</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4742472006442641</v>
+        <v>0.3263400629167832</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TEXT</t>
+          <t>MULTIMODAL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>SINGLE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2842228799656256</v>
+        <v>0.7857121558575779</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4115770115457354</v>
+        <v>0.3284685385572288</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2621978371501272</v>
+        <v>0.7473918575063613</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4027174101396517</v>
+        <v>0.3628459917211225</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07022900763358779</v>
+        <v>0.1803435114503817</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09546563786786859</v>
+        <v>0.0608078278147442</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3506679389312977</v>
+        <v>0.8998091603053435</v>
       </c>
       <c r="K4" t="n">
-        <v>0.476929120434738</v>
+        <v>0.3002542844589169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SINGLE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rephrase_level_2.json</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6072865032762639</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4165429004629574</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5657442748091603</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4311450146564969</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1469465648854962</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.08872629781138448</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.732824427480916</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4419453436020595</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>TEXT</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>MULTI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>rephrase_level_1.json</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2842228799656256</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4115770115457354</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2621978371501272</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4027174101396517</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.07022900763358779</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.09546563786786859</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.3506679389312977</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.476929120434738</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>query.json</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2776854495749441</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4105810232619349</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2565521628498728</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4024126871428433</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0683206106870229</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.09484944012885281</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3416030534351145</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4742472006442641</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>rephrase_level_3.json</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1780175645510958</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3372069000495356</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1567877629063097</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3198402348993183</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04837476099426386</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.085643649487867</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2418738049713193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.428218247439335</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>rephrase_level_2.json</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D9" t="n">
         <v>0.2306730875380003</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E9" t="n">
         <v>0.3795952110984326</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F9" t="n">
         <v>0.2092239185750636</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G9" t="n">
         <v>0.3665715986927931</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H9" t="n">
         <v>0.05896946564885497</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I9" t="n">
         <v>0.09119482030718362</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J9" t="n">
         <v>0.2948473282442748</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K9" t="n">
         <v>0.455974101535918</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>rephrase_level_2.json</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6261859803467497</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3991509828138634</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5778466921119593</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4183082885253697</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1545801526717557</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.08424572874745895</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.771469465648855</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4196019299312201</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>rephrase_level_1.json</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.717971918409539</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3730307451534094</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.6775445292620864</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3992185075923367</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1683206106870229</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.07406055570327193</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8392175572519084</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3670053122690837</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>query.json</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7704932591670384</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3386325520216091</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.730486641221374</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3733297644885754</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1786259541984733</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.06301294376637845</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8907442748091603</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.3115772168910025</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>rephrase_level_3.json</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5001862214704347</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4235128488813086</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4543658381134481</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4277711569776966</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1281070745697897</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.09676236887476655</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.6381453154875717</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4802883155696187</v>
       </c>
     </row>
   </sheetData>

--- a/results/finslides/retrieval_results.xlsx
+++ b/results/finslides/retrieval_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MULTIMODAL</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -503,38 +503,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rephrase_level_3.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4594190075796388</v>
+        <v>0.3495152379406437</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4223255917435133</v>
+        <v>0.4168509911647434</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4138463989802422</v>
+        <v>0.3153466921119593</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4228511858016441</v>
+        <v>0.4075212710221859</v>
       </c>
       <c r="H2" t="n">
-        <v>0.120076481835564</v>
+        <v>0.09064885496183206</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09912810087860269</v>
+        <v>0.09956182042567899</v>
       </c>
       <c r="J2" t="n">
-        <v>0.597036328871893</v>
+        <v>0.4522900763358779</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4902498803089382</v>
+        <v>0.4972390410530155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MULTIMODAL</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -544,38 +544,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7594595696731965</v>
+        <v>0.3622058353923269</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3451621684299527</v>
+        <v>0.4170813646678341</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7192111959287532</v>
+        <v>0.3256520356234097</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3762882778324463</v>
+        <v>0.4092975568359818</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1761450381679389</v>
+        <v>0.0948473282442748</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06598943035159732</v>
+        <v>0.09986716163873766</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8788167938931297</v>
+        <v>0.4732824427480916</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3263400629167832</v>
+        <v>0.4988076512021941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MULTIMODAL</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -585,38 +585,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_3.json</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7857121558575779</v>
+        <v>0.2746968557940886</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3284685385572288</v>
+        <v>0.3850818055015708</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7473918575063613</v>
+        <v>0.2412842574888464</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3628459917211225</v>
+        <v>0.3704283508180167</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1803435114503817</v>
+        <v>0.07533460803059275</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0608078278147442</v>
+        <v>0.09691036290818181</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8998091603053435</v>
+        <v>0.3761950286806883</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3002542844589169</v>
+        <v>0.4841831506160523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MULTIMODAL</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -630,80 +630,80 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6072865032762639</v>
+        <v>0.3018921948515184</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4165429004629574</v>
+        <v>0.3957769957706884</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5657442748091603</v>
+        <v>0.2662849872773536</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4311450146564969</v>
+        <v>0.3830135608876171</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1469465648854962</v>
+        <v>0.08206106870229007</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08872629781138448</v>
+        <v>0.09837781632002228</v>
       </c>
       <c r="J5" t="n">
-        <v>0.732824427480916</v>
+        <v>0.4098282442748092</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4419453436020595</v>
+        <v>0.4915592587380649</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TEXT</t>
+          <t>MULTIMODAL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>SINGLE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>rephrase_level_2.json</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.2842228799656256</v>
+        <v>0.6069055985873638</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4115770115457354</v>
+        <v>0.4165866470678714</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2621978371501272</v>
+        <v>0.5653148854961833</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4027174101396517</v>
+        <v>0.4313181348113001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07022900763358779</v>
+        <v>0.1469465648854962</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09546563786786859</v>
+        <v>0.0887262978113845</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3506679389312977</v>
+        <v>0.732824427480916</v>
       </c>
       <c r="K6" t="n">
-        <v>0.476929120434738</v>
+        <v>0.4419453436020595</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TEXT</t>
+          <t>MULTIMODAL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>SINGLE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -712,39 +712,39 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.2776854495749441</v>
+        <v>0.7856873073938061</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4105810232619349</v>
+        <v>0.3278183698997267</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2565521628498728</v>
+        <v>0.7470578880407125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4024126871428433</v>
+        <v>0.3625704950893894</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0683206106870229</v>
+        <v>0.1805343511450382</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09484944012885281</v>
+        <v>0.06055485150979135</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3416030534351145</v>
+        <v>0.9007633587786259</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4742472006442641</v>
+        <v>0.2989794813368877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TEXT</t>
+          <t>MULTIMODAL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>SINGLE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -753,75 +753,75 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1780175645510958</v>
+        <v>0.4591913398044408</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3372069000495356</v>
+        <v>0.4214927471149735</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1567877629063097</v>
+        <v>0.4132090503505418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3198402348993183</v>
+        <v>0.4219033519017887</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04837476099426386</v>
+        <v>0.1202676864244742</v>
       </c>
       <c r="I8" t="n">
-        <v>0.085643649487867</v>
+        <v>0.09908918403989078</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2418738049713193</v>
+        <v>0.5979923518164436</v>
       </c>
       <c r="K8" t="n">
-        <v>0.428218247439335</v>
+        <v>0.4900596833543284</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TEXT</t>
+          <t>MULTIMODAL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>SINGLE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>rephrase_level_2.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.2306730875380003</v>
+        <v>0.7598004324013475</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3795952110984326</v>
+        <v>0.3455849403087795</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2092239185750636</v>
+        <v>0.7199427480916031</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3665715986927931</v>
+        <v>0.3762318992520967</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05896946564885497</v>
+        <v>0.1759541984732825</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09119482030718362</v>
+        <v>0.0662089985576463</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2948473282442748</v>
+        <v>0.8778625954198473</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455974101535918</v>
+        <v>0.3274444364813315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MULTIMODAL</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -835,34 +835,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6261859803467497</v>
+        <v>0.2306730875380003</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3991509828138634</v>
+        <v>0.3795952110984326</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5778466921119593</v>
+        <v>0.2092239185750636</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4183082885253697</v>
+        <v>0.3665715986927931</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1545801526717557</v>
+        <v>0.05896946564885497</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08424572874745895</v>
+        <v>0.09119482030718362</v>
       </c>
       <c r="J10" t="n">
-        <v>0.771469465648855</v>
+        <v>0.2948473282442748</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4196019299312201</v>
+        <v>0.455974101535918</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MULTIMODAL</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -876,34 +876,34 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.717971918409539</v>
+        <v>0.2842228799656256</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3730307451534094</v>
+        <v>0.4115770115457354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6775445292620864</v>
+        <v>0.2621978371501272</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3992185075923367</v>
+        <v>0.4027174101396517</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1683206106870229</v>
+        <v>0.07022900763358779</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07406055570327193</v>
+        <v>0.09546563786786859</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8392175572519084</v>
+        <v>0.3506679389312977</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3670053122690837</v>
+        <v>0.476929120434738</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MULTIMODAL</t>
+          <t>TEXT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -917,68 +917,232 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.7704932591670384</v>
+        <v>0.2776854495749441</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3386325520216091</v>
+        <v>0.4105810232619349</v>
       </c>
       <c r="F12" t="n">
-        <v>0.730486641221374</v>
+        <v>0.2565521628498728</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3733297644885754</v>
+        <v>0.4024126871428433</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1786259541984733</v>
+        <v>0.0683206106870229</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06301294376637845</v>
+        <v>0.09484944012885281</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8907442748091603</v>
+        <v>0.3416030534351145</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3115772168910025</v>
+        <v>0.4742472006442641</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>TEXT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>rephrase_level_3.json</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1780175645510958</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3372069000495356</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1567877629063097</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3198402348993183</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.04837476099426386</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.085643649487867</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.2418738049713193</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.428218247439335</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>MULTIMODAL</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>MULTI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>rephrase_level_1.json</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.717971918409539</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3730307451534094</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6775445292620864</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3992185075923367</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1683206106870229</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.07406055570327193</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8392175572519084</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3670053122690837</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>query.json</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7704932591670384</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3386325520216091</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.730486641221374</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3733297644885754</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1786259541984733</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.06301294376637845</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8907442748091603</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3115772168910025</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>rephrase_level_2.json</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6261859803467497</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3991509828138634</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5778466921119593</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4183082885253697</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1545801526717557</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.08424572874745895</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.771469465648855</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4196019299312201</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MULTIMODAL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MULTI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>rephrase_level_3.json</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>0.5001862214704347</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E17" t="n">
         <v>0.4235128488813086</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F17" t="n">
         <v>0.4543658381134481</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G17" t="n">
         <v>0.4277711569776966</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>0.1281070745697897</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>0.09676236887476655</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J17" t="n">
         <v>0.6381453154875717</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K17" t="n">
         <v>0.4802883155696187</v>
       </c>
     </row>

--- a/results/finslides/retrieval_results.xlsx
+++ b/results/finslides/retrieval_results.xlsx
@@ -503,32 +503,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3495152379406437</v>
+        <v>0.3622058353923269</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4168509911647434</v>
+        <v>0.4170813646678341</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3153466921119593</v>
+        <v>0.3256520356234097</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4075212710221859</v>
+        <v>0.4092975568359818</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09064885496183206</v>
+        <v>0.0948473282442748</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09956182042567899</v>
+        <v>0.09986716163873766</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4522900763358779</v>
+        <v>0.4732824427480916</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4972390410530155</v>
+        <v>0.4988076512021941</v>
       </c>
     </row>
     <row r="3">
@@ -544,32 +544,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_3.json</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3622058353923269</v>
+        <v>0.2746968557940886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4170813646678341</v>
+        <v>0.3850818055015708</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3256520356234097</v>
+        <v>0.2412842574888464</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4092975568359818</v>
+        <v>0.3704283508180167</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0948473282442748</v>
+        <v>0.07533460803059275</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09986716163873766</v>
+        <v>0.09691036290818181</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4732824427480916</v>
+        <v>0.3761950286806883</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4988076512021941</v>
+        <v>0.4841831506160523</v>
       </c>
     </row>
     <row r="4">
@@ -585,32 +585,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rephrase_level_3.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2746968557940886</v>
+        <v>0.3495152379406437</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3850818055015708</v>
+        <v>0.4168509911647434</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2412842574888464</v>
+        <v>0.3153466921119593</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3704283508180167</v>
+        <v>0.4075212710221859</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07533460803059275</v>
+        <v>0.09064885496183206</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09691036290818181</v>
+        <v>0.09956182042567899</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3761950286806883</v>
+        <v>0.4522900763358779</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4841831506160523</v>
+        <v>0.4972390410530155</v>
       </c>
     </row>
     <row r="5">
@@ -667,32 +667,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rephrase_level_2.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6069055985873638</v>
+        <v>0.7856873073938061</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4165866470678714</v>
+        <v>0.3278183698997267</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5653148854961833</v>
+        <v>0.7470578880407125</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4313181348113001</v>
+        <v>0.3625704950893894</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1469465648854962</v>
+        <v>0.1805343511450382</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0887262978113845</v>
+        <v>0.06055485150979135</v>
       </c>
       <c r="J6" t="n">
-        <v>0.732824427480916</v>
+        <v>0.9007633587786259</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4419453436020595</v>
+        <v>0.2989794813368877</v>
       </c>
     </row>
     <row r="7">
@@ -708,32 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_2.json</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7856873073938061</v>
+        <v>0.6069055985873638</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3278183698997267</v>
+        <v>0.4165866470678714</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7470578880407125</v>
+        <v>0.5653148854961833</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3625704950893894</v>
+        <v>0.4313181348113001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1805343511450382</v>
+        <v>0.1469465648854962</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06055485150979135</v>
+        <v>0.0887262978113845</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9007633587786259</v>
+        <v>0.732824427480916</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2989794813368877</v>
+        <v>0.4419453436020595</v>
       </c>
     </row>
     <row r="8">
@@ -831,32 +831,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>rephrase_level_2.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.2306730875380003</v>
+        <v>0.2842228799656256</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3795952110984326</v>
+        <v>0.4115770115457354</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2092239185750636</v>
+        <v>0.2621978371501272</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3665715986927931</v>
+        <v>0.4027174101396517</v>
       </c>
       <c r="H10" t="n">
-        <v>0.05896946564885497</v>
+        <v>0.07022900763358779</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09119482030718362</v>
+        <v>0.09546563786786859</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2948473282442748</v>
+        <v>0.3506679389312977</v>
       </c>
       <c r="K10" t="n">
-        <v>0.455974101535918</v>
+        <v>0.476929120434738</v>
       </c>
     </row>
     <row r="11">
@@ -872,32 +872,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.2842228799656256</v>
+        <v>0.2776854495749441</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4115770115457354</v>
+        <v>0.4105810232619349</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2621978371501272</v>
+        <v>0.2565521628498728</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4027174101396517</v>
+        <v>0.4024126871428433</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07022900763358779</v>
+        <v>0.0683206106870229</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09546563786786859</v>
+        <v>0.09484944012885281</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3506679389312977</v>
+        <v>0.3416030534351145</v>
       </c>
       <c r="K11" t="n">
-        <v>0.476929120434738</v>
+        <v>0.4742472006442641</v>
       </c>
     </row>
     <row r="12">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_2.json</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.2776854495749441</v>
+        <v>0.2306730875380003</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4105810232619349</v>
+        <v>0.3795952110984326</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2565521628498728</v>
+        <v>0.2092239185750636</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4024126871428433</v>
+        <v>0.3665715986927931</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0683206106870229</v>
+        <v>0.05896946564885497</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09484944012885281</v>
+        <v>0.09119482030718362</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3416030534351145</v>
+        <v>0.2948473282442748</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4742472006442641</v>
+        <v>0.455974101535918</v>
       </c>
     </row>
     <row r="13">
@@ -995,32 +995,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>rephrase_level_1.json</t>
+          <t>query.json</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.717971918409539</v>
+        <v>0.7704932591670384</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3730307451534094</v>
+        <v>0.3386325520216091</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6775445292620864</v>
+        <v>0.730486641221374</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3992185075923367</v>
+        <v>0.3733297644885754</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1683206106870229</v>
+        <v>0.1786259541984733</v>
       </c>
       <c r="I14" t="n">
-        <v>0.07406055570327193</v>
+        <v>0.06301294376637845</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8392175572519084</v>
+        <v>0.8907442748091603</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3670053122690837</v>
+        <v>0.3115772168910025</v>
       </c>
     </row>
     <row r="15">
@@ -1036,32 +1036,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>query.json</t>
+          <t>rephrase_level_1.json</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.7704932591670384</v>
+        <v>0.717971918409539</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3386325520216091</v>
+        <v>0.3730307451534094</v>
       </c>
       <c r="F15" t="n">
-        <v>0.730486641221374</v>
+        <v>0.6775445292620864</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3733297644885754</v>
+        <v>0.3992185075923367</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1786259541984733</v>
+        <v>0.1683206106870229</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06301294376637845</v>
+        <v>0.07406055570327193</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8907442748091603</v>
+        <v>0.8392175572519084</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3115772168910025</v>
+        <v>0.3670053122690837</v>
       </c>
     </row>
     <row r="16">
